--- a/va_facility_data_2025-02-20/The Villages VA Clinic - Facility Data.xlsx"; filename*=UTF-8''The%20Villages%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/The Villages VA Clinic - Facility Data.xlsx"; filename*=UTF-8''The%20Villages%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1c25cfc3072842d0a0f698975eb0be89"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a29cd5357aa43eb8599fbeb04d156d5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd1ac0a225e6945b5a01d29d2ad8e720d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4abfdb09564e47cda6ff9d34d6ce309f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4ee0e9b4fc8046e88f612e559d5af406"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc163db8566b44659b256551740043b35"/>
   </x:sheets>
 </x:workbook>
 </file>
